--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.089</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.939</v>
+        <v>19.671</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.724</v>
+        <v>-1.187</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01</v>
+        <v>25.918</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.314</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.666</v>
+        <v>15.197</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.74449511594596</v>
+        <v>-6.825883764622873</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.90801658390156</v>
+        <v>27.65871595321962</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.16756199108372</v>
+        <v>35.36015587716574</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.92199337063018</v>
+        <v>2.320414129029452</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.32820506163214</v>
+        <v>25.75261764623563</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34.69594067657655</v>
+        <v>31.31215164329248</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.7417340515778</v>
+        <v>16.7145404687577</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.65294462832087</v>
+        <v>35.12089237714511</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.86460357748468</v>
+        <v>39.70700501908169</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.37732940131055</v>
+        <v>40.91109686578527</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41.00650344066826</v>
+        <v>47.80779260859013</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.99072283555356</v>
+        <v>52.68265603384516</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34.38159040058831</v>
+        <v>9.238999337010487</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42.7112690378767</v>
+        <v>39.01899232288056</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>45.37514374894859</v>
+        <v>46.46574143467915</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.56362208968686</v>
+        <v>-1.748413252843378</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.77257303646225</v>
+        <v>35.46233710038338</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.05271871280846</v>
+        <v>46.30706534317122</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.8143416403453</v>
+        <v>2.690011012500324</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37.26772688201071</v>
+        <v>28.9448008042862</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.6568915618659</v>
+        <v>37.89777489782554</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.64474171852262</v>
+        <v>19.33558627889454</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.6000633504234</v>
+        <v>40.158879902108</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39.83171015783955</v>
+        <v>47.69747397536149</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40.34387213118889</v>
+        <v>45.28381881711773</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>46.00963885898558</v>
+        <v>54.19098657634999</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>48.01293715370405</v>
+        <v>61.20384388698625</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>39.3142376070788</v>
+        <v>14.58459265022683</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.69645265933443</v>
+        <v>49.02749906436493</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50.38456896944287</v>
+        <v>59.56320697425103</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.90851608970113</v>
+        <v>4.523307266267405</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43.03120418850205</v>
+        <v>45.45915792732714</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.30160751447347</v>
+        <v>56.05684923394084</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.44422923854633</v>
+        <v>10.19728631759058</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.80799292636353</v>
+        <v>40.54350882490117</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>49.18770552729825</v>
+        <v>49.34175955632101</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.25242713845216</v>
+        <v>29.66679462232779</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.12412496337942</v>
+        <v>54.15863981021079</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49.34685581619514</v>
+        <v>61.54869920637837</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>49.97155222109198</v>
+        <v>64.99195871912286</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>55.56820825746505</v>
+        <v>74.04489666396444</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>57.56067891232936</v>
+        <v>81.93143536384284</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>48.9083390847145</v>
+        <v>28.99687564936474</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>57.18920982315896</v>
+        <v>68.49884007795158</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>59.86680068009392</v>
+        <v>78.63737529891472</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>17.70489008692074</v>
+        <v>2.132807391442295</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.93520569225347</v>
+        <v>38.32450685585299</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.18032512323501</v>
+        <v>44.87687185268575</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.83362074534106</v>
+        <v>12.06110130879182</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.30912257843801</v>
+        <v>37.45696572019389</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.66217711281368</v>
+        <v>41.82758917969991</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.66054196148278</v>
+        <v>27.53918243216761</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.63661004680162</v>
+        <v>47.67018335147419</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.83443605945981</v>
+        <v>51.19389015667031</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.27154443363808</v>
+        <v>52.47762066474077</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.95037953244372</v>
+        <v>60.12775467708704</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.92307187797206</v>
+        <v>63.98386677994711</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>30.26210995945883</v>
+        <v>18.27223020792624</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>38.66987871373488</v>
+        <v>50.39549754766693</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.31746156467172</v>
+        <v>56.1868016469906</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>22.53929808356322</v>
+        <v>1.66269948408069</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.81537938532817</v>
+        <v>40.54606804021589</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.08095587554935</v>
+        <v>50.15918003010283</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.7410163442042</v>
+        <v>6.828351473269429</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.26403769354462</v>
+        <v>35.0000691427099</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.63837189133033</v>
+        <v>42.67662872126301</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.57864735866196</v>
+        <v>24.48819922156529</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.59914836135857</v>
+        <v>46.99895188368311</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.81682424781074</v>
+        <v>53.39743451155607</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.2532245873255</v>
+        <v>51.20012308476965</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>41.96886493052721</v>
+        <v>60.8380225301426</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>43.96051727635572</v>
+        <v>66.79321993415667</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.20964084037301</v>
+        <v>18.06000269432555</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>43.6703443846032</v>
+        <v>54.79648522370806</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>46.3419968133389</v>
+        <v>63.58937100066439</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.0291464368066</v>
+        <v>7.506051806526486</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.2181851729586</v>
+        <v>50.17885483332738</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.47402204852905</v>
+        <v>59.52353690639416</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.51847504117937</v>
+        <v>13.9267529435141</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.95105513047556</v>
+        <v>46.26095598342403</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.3159516745303</v>
+        <v>53.75338405225534</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.33327429049987</v>
+        <v>34.44764305836682</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.26938842022524</v>
+        <v>60.69196003541818</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.4781598727915</v>
+        <v>66.91769070201104</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>46.02990327797305</v>
+        <v>70.50272880133689</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>51.67583877296093</v>
+        <v>80.29649933551428</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>53.65664002193424</v>
+        <v>87.12740606662641</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>44.95271857874177</v>
+        <v>32.06675051533529</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>53.31116157921153</v>
+        <v>73.93142863773549</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>55.97229458271703</v>
+        <v>82.29867927676604</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.70489008692074</v>
+        <v>0.8501114054881214</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.93520569225347</v>
+        <v>36.83145111386825</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.18032512323501</v>
+        <v>43.28753378275297</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20.83362074534106</v>
+        <v>10.61767650621548</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.30912257843801</v>
+        <v>35.76259074570761</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.66217711281368</v>
+        <v>40.0271297564384</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21.66054196148278</v>
+        <v>26.05868960488537</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.63661004680162</v>
+        <v>45.96883706827812</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.83443605945981</v>
+        <v>49.39772606561084</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.27154443363808</v>
+        <v>51.0720825638489</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.95037953244372</v>
+        <v>58.57756654768588</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.92307187797206</v>
+        <v>62.3416770882491</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.26210995945883</v>
+        <v>16.94179556395181</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.66987871373488</v>
+        <v>48.78841870695837</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.31746156467172</v>
+        <v>54.45880968390432</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.53929808356322</v>
+        <v>1.621576850895128</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.81537938532817</v>
+        <v>40.30156156501391</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.08095587554935</v>
+        <v>49.80858777962769</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.7410163442042</v>
+        <v>6.635609677114285</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.26403769354462</v>
+        <v>34.56389139303709</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.63837189133033</v>
+        <v>42.12295443355544</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.57864735866196</v>
+        <v>24.27488409515311</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.59914836135857</v>
+        <v>46.57119426363688</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.81682424781074</v>
+        <v>52.86496495492914</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.2532245873255</v>
+        <v>51.03738212667992</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.96886493052721</v>
+        <v>60.52207953938907</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.96051727635572</v>
+        <v>66.37988577099688</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>35.20964084037301</v>
+        <v>17.95464407946334</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>43.6703443846032</v>
+        <v>54.41815096911952</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.3419968133389</v>
+        <v>63.07968495004422</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.0291464368066</v>
+        <v>7.736717698287425</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.2181851729586</v>
+        <v>50.21623015508827</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.47402204852905</v>
+        <v>59.45619873537214</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.51847504117937</v>
+        <v>14.02684414236501</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.95105513047556</v>
+        <v>46.12942174822755</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.3159516745303</v>
+        <v>53.50582280391389</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.33327429049987</v>
+        <v>34.52822908916543</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.26938842022524</v>
+        <v>60.56826321894935</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.4781598727915</v>
+        <v>66.6906565146964</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>46.02990327797305</v>
+        <v>70.63879820348517</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.67583877296093</v>
+        <v>80.27937778499712</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>53.65664002193424</v>
+        <v>87.01449175356211</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>44.95271857874177</v>
+        <v>32.25057125144487</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.31116157921153</v>
+        <v>73.85533425311431</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.97229458271703</v>
+        <v>82.0923853358609</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19.59634974441729</v>
+        <v>-9.036048068444298</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.77900830533865</v>
+        <v>24.84845212900438</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.04120469848074</v>
+        <v>32.33031622742935</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>22.74414080774168</v>
+        <v>-0.03431771249772453</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.17018127239481</v>
+        <v>22.75727656533634</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>32.54070239398984</v>
+        <v>28.06961235909739</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>23.56720589553224</v>
+        <v>13.94700016282252</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.49692874609642</v>
+        <v>31.78552843083782</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.71117268968549</v>
+        <v>36.15525939741563</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.21461378858769</v>
+        <v>37.12491048926965</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.85872464675041</v>
+        <v>43.78495824331662</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>40.84560105977477</v>
+        <v>48.6140585772557</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>32.22708351250066</v>
+        <v>6.12135448317737</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>40.57909484592648</v>
+        <v>35.13762602942218</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>43.24613666590857</v>
+        <v>42.2782819333235</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>24.43088582007735</v>
+        <v>-4.907446352612116</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.65911513167114</v>
+        <v>31.67429670515091</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.94195060736524</v>
+        <v>42.28829630440733</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>27.65211972108582</v>
+        <v>-0.5909073498935058</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.12548028008862</v>
+        <v>24.99006711054807</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37.51747074055039</v>
+        <v>33.68307320124965</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.48585865691995</v>
+        <v>15.61491507807574</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.45982933521919</v>
+        <v>35.84157695212063</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.69409884293922</v>
+        <v>43.15274774477097</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.19691673682998</v>
+        <v>40.56787398948146</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.87772759903242</v>
+        <v>49.22396254211915</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.88372007094577</v>
+        <v>56.19345740454128</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>37.17534373326001</v>
+        <v>10.54347629004603</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.58005620957277</v>
+        <v>44.18282528686818</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.27138492983374</v>
+        <v>54.40191565251095</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.86339994700058</v>
+        <v>1.779640706116478</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.00523563539125</v>
+        <v>42.09459016465233</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43.27832526581636</v>
+        <v>52.46535484083034</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>37.37114086705765</v>
+        <v>7.308267904868128</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>44.75474434471698</v>
+        <v>36.98959342580045</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.13728132010013</v>
+        <v>45.53163749166653</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.18260304134155</v>
+        <v>26.35950909198763</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.07282299426566</v>
+        <v>50.26260121948306</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.2981755088416</v>
+        <v>57.42857419135235</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.91388273538865</v>
+        <v>60.67880289369225</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>53.52547022456313</v>
+        <v>69.4826905914142</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.52062909671723</v>
+        <v>77.31785371451824</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>46.85819189911255</v>
+        <v>25.33622513735637</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.16140763330318</v>
+        <v>64.042681403288</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>57.8422078065404</v>
+        <v>73.86574661925738</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.48016951111411</v>
+        <v>2.39718505137273</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.64594371651559</v>
+        <v>37.79674776952517</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.89935830880201</v>
+        <v>45.14547432626742</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.65795756808608</v>
+        <v>12.19824475619399</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>33.06655105647499</v>
+        <v>36.67459452096203</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35.42786876814741</v>
+        <v>41.84765454722381</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.4764908604135</v>
+        <v>26.83299936780023</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.38993125930641</v>
+        <v>46.16109304992582</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.59558647401199</v>
+        <v>50.40932331762792</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.09841933779051</v>
+        <v>51.88298048038313</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.7292034403327</v>
+        <v>59.10384970712077</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.70829720496217</v>
+        <v>63.82861724762124</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.09376067487563</v>
+        <v>19.27449664576723</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>43.42618023641941</v>
+        <v>50.156323937893</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>46.08285421102609</v>
+        <v>57.14097445848091</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.30043370550646</v>
+        <v>7.298108102864532</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.51163483219169</v>
+        <v>45.41632716861422</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.78558437829303</v>
+        <v>55.85646962900498</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>30.55142786293838</v>
+        <v>12.40669842278498</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>38.00719239427213</v>
+        <v>39.69579925199294</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40.38987051449161</v>
+        <v>48.20389152174536</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.38058446681779</v>
+        <v>29.29182505883835</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.33813363371666</v>
+        <v>51.02916474863477</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.56371265496003</v>
+        <v>58.17868446760626</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>41.0660791904956</v>
+        <v>56.13974413245514</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>46.73345086701718</v>
+        <v>65.35966408525219</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.7315678956289</v>
+        <v>72.20584302039413</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>40.02753387931185</v>
+        <v>24.55057151730121</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>48.41248772561716</v>
+        <v>60.08281602723567</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>51.09332571824937</v>
+        <v>70.09580045964205</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.61858556612231</v>
+        <v>11.49000047220374</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.74349820756167</v>
+        <v>53.31214732834289</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.00770771323582</v>
+        <v>63.50993082449619</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.15402296108039</v>
+        <v>17.76676364327638</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.52014049405502</v>
+        <v>49.12349088125048</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>49.89336599165279</v>
+        <v>57.48089124204473</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.96099002434949</v>
+        <v>37.46459960334415</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>47.8348924916789</v>
+        <v>62.84984618286842</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50.05155456515911</v>
+        <v>69.85475647587741</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>50.66655173211747</v>
+        <v>73.65047204657691</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>56.26480380468856</v>
+        <v>83.00435194921283</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58.25210496858718</v>
+        <v>90.7174752589909</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49.59468721898527</v>
+        <v>36.79057202673474</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>57.87826640369286</v>
+        <v>77.35790230528313</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>60.54857794289366</v>
+        <v>86.97406178949637</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>14.15123074877851</v>
+        <v>0.2299580242660291</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.26203636714285</v>
+        <v>36.7559498223457</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.47030576832668</v>
+        <v>42.94341075185103</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>17.18444041146216</v>
+        <v>10.38027732394163</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.53632077943315</v>
+        <v>36.2935045832418</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.85088233030249</v>
+        <v>40.27955164856935</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>18.00028075929507</v>
+        <v>25.87025241673057</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24.86095311151909</v>
+        <v>46.49901390860155</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.02278825984178</v>
+        <v>49.69736428721833</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.44601328884028</v>
+        <v>51.60375718430615</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.03085433842801</v>
+        <v>59.38044325984801</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.9715471575138</v>
+        <v>63.18490593561853</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.47500065217667</v>
+        <v>17.40902498764882</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>34.74402168470045</v>
+        <v>49.90776879463911</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>37.34829940160786</v>
+        <v>55.33285375022626</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>18.96654751880959</v>
+        <v>5.607878406662344</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.12273886061325</v>
+        <v>44.85332419799035</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.35110848185134</v>
+        <v>54.01315434520838</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>22.07254473432684</v>
+        <v>11.08798231658266</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.47154813615026</v>
+        <v>39.81185980924121</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.80701785583262</v>
+        <v>47.00420687610072</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.89882955451834</v>
+        <v>28.83842870202471</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.80356553354475</v>
+        <v>51.87763589614219</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.98490362611218</v>
+        <v>57.8645745191717</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>32.40744070832987</v>
+        <v>56.39326801292827</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>38.02877741787493</v>
+        <v>66.15852071358717</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>39.9880957465941</v>
+        <v>72.01054562814585</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.40242268271986</v>
+        <v>23.2638022747465</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>39.72393937616343</v>
+        <v>60.39837312667035</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>42.35186792454233</v>
+        <v>68.71923979892972</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.50777021342859</v>
+        <v>9.846335998247625</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.57901093795623</v>
+        <v>52.80965206276666</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>37.79784991910049</v>
+        <v>61.70418605722361</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.89945143479196</v>
+        <v>16.46143326208884</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>39.21018230561772</v>
+        <v>49.26886825230933</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>41.53642147641486</v>
+        <v>56.28016606361933</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32.70308274204255</v>
+        <v>37.02452267298096</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>39.52545918118393</v>
+        <v>63.7262833206521</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>41.69808759743433</v>
+        <v>69.54324444712816</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>42.23387151894445</v>
+        <v>73.76833663191672</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>47.78715887305145</v>
+        <v>83.67075586699144</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>49.73587190949583</v>
+        <v>90.36876916863915</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.19439300253536</v>
+        <v>35.42762365382073</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>49.41609091264484</v>
+        <v>77.60483795270129</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>52.03373254669163</v>
+        <v>85.5004280454425</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.33706433002324</v>
+        <v>-12.88054223012252</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>20.44742127129098</v>
+        <v>21.09797457841691</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.6654840992377</v>
+        <v>28.05199456589488</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.37246547856462</v>
+        <v>-4.269902706001261</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.72380424603423</v>
+        <v>18.73939672453697</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.04860969651297</v>
+        <v>23.56965791964007</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>17.18988236748823</v>
+        <v>10.59820708892288</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.0500410039916</v>
+        <v>28.6681896403329</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.22146162203682</v>
+        <v>32.60369758449357</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.65782376557003</v>
+        <v>34.02456328323687</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.24254482467444</v>
+        <v>40.83552003835304</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.19143601757538</v>
+        <v>44.96835019501469</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.69722602297284</v>
+        <v>2.173257694335259</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.96554360444328</v>
+        <v>31.55600077047844</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36.58132020932504</v>
+        <v>37.97749884756158</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.15236873293544</v>
+        <v>-6.126089818427253</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.3081274239089</v>
+        <v>30.57746340516174</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.54639700237939</v>
+        <v>40.62023315812473</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.26060982323074</v>
+        <v>-2.201828600215123</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.65908826540709</v>
+        <v>23.62697350103282</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>31.00491359544777</v>
+        <v>31.79482883487819</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.08851947775128</v>
+        <v>14.95039648671508</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.99275719138187</v>
+        <v>35.43625478431662</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>31.18378504143205</v>
+        <v>42.2754990545543</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.61931804280226</v>
+        <v>40.0804855607214</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.2405525882643</v>
+        <v>48.88720843890363</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.20816034884287</v>
+        <v>55.10651314612392</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.62469317859087</v>
+        <v>9.184227556169077</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.94552392103908</v>
+        <v>43.21205661925873</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>41.58507758224216</v>
+        <v>52.6663808218199</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.72680323010894</v>
+        <v>2.650415201333953</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.79759252150912</v>
+        <v>43.13034976599103</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.0263381869655</v>
+        <v>52.90050012212307</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>31.1215336404308</v>
+        <v>7.864778072082089</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.43171882909412</v>
+        <v>37.84336414129295</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.76832485140544</v>
+        <v>45.82431296426364</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>31.92676869124589</v>
+        <v>27.85725021799677</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>38.74862610439686</v>
+        <v>52.06289189050789</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>40.93095557332951</v>
+        <v>58.72634920885761</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>41.47959017600206</v>
+        <v>62.27260199307875</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.03274184665433</v>
+        <v>71.24474111855864</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>48.98973573458854</v>
+        <v>78.32945480720949</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>40.45017065323081</v>
+        <v>26.1055436057488</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>48.67116203106301</v>
+        <v>65.24401099164645</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>51.30044173827231</v>
+        <v>74.27617944125041</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>21.05275026765244</v>
+        <v>-18.44741370635267</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.30000980960153</v>
+        <v>16.45377880849128</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.57441127597561</v>
+        <v>23.81303069580215</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.2405426355917</v>
+        <v>-9.141077547197902</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>31.73339251324917</v>
+        <v>14.75193707327507</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>34.11680785940342</v>
+        <v>19.93576772000293</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.06682978245142</v>
+        <v>5.214665204806899</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.0589154087376</v>
+        <v>24.02071187598356</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.28519037279594</v>
+        <v>28.27535440462795</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.77034084752835</v>
+        <v>29.63103095532663</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.46442660424071</v>
+        <v>36.68098236350303</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>42.4621904473811</v>
+        <v>41.41717927798322</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.75377188374713</v>
+        <v>-2.61656636831788</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.18106109874243</v>
+        <v>27.65140453526108</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>44.86265749930735</v>
+        <v>34.60812369246104</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.94165502842223</v>
+        <v>-15.00680135732911</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>33.23491900672178</v>
+        <v>22.60272589567079</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.5300534595011</v>
+        <v>33.06916721404968</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.2036344313218</v>
+        <v>-10.41896665277315</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>36.74425478927292</v>
+        <v>16.27378428492031</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>39.14923611970357</v>
+        <v>24.81069963142229</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.04060258543975</v>
+        <v>6.178059577537063</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.07735700658486</v>
+        <v>27.3819631580198</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>39.32374802334484</v>
+        <v>34.55352000088043</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>39.80831208204218</v>
+        <v>32.39560255406562</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.53943748732328</v>
+        <v>41.44533201365843</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.55640607873887</v>
+        <v>48.31411097077208</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>38.75733770169451</v>
+        <v>1.16820012937114</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.23783236411309</v>
+        <v>36.07697859059888</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.94382502243351</v>
+        <v>46.08035967310151</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>35.42587294370506</v>
+        <v>-9.955029791121493</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>42.63198442168101</v>
+        <v>31.3884235338584</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.91735919944503</v>
+        <v>41.62197223964003</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>38.97624854801617</v>
+        <v>-4.182668297595473</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>46.42632250580434</v>
+        <v>26.61116431175347</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>48.82184099184617</v>
+        <v>35.0077748495066</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>39.79062929418139</v>
+        <v>15.25235742129808</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.74289857230087</v>
+        <v>40.13387488086331</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>48.98036238254272</v>
+        <v>47.17005188830863</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>49.57898140984189</v>
+        <v>50.83277507542709</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>55.24029095511408</v>
+        <v>60.02530248257499</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.24640142455841</v>
+        <v>67.77164694428438</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>48.494020724485</v>
+        <v>14.2996526915938</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.8721251976194</v>
+        <v>54.27994471615296</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>59.56757726476732</v>
+        <v>63.89710173336475</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>17.42774999140894</v>
+        <v>7.057108622624838</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.59567512138415</v>
+        <v>44.21797442517993</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.82458219585522</v>
+        <v>50.52592311150935</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>20.54100415462468</v>
+        <v>17.64402974618644</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.95184479465687</v>
+        <v>44.15165337984506</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.28802319298203</v>
+        <v>48.2733017304213</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.36001797987499</v>
+        <v>33.71953742905882</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.27569891443501</v>
+        <v>54.87580613777928</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.45775466306948</v>
+        <v>58.1835770310539</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.89736182431475</v>
+        <v>60.6957825319038</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.52719171663317</v>
+        <v>68.64270336825905</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>38.48547478569179</v>
+        <v>72.2716476277258</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.89915842825097</v>
+        <v>25.9114104834377</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.23442957456967</v>
+        <v>59.19859566848638</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>40.86299136521255</v>
+        <v>64.79534902236125</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.26145595820587</v>
+        <v>7.346250986060198</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.47501505154442</v>
+        <v>47.2214492202775</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.72418564759345</v>
+        <v>56.51403737688858</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.44775548903679</v>
+        <v>13.12462439131727</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>32.905978026505</v>
+        <v>42.43805705724867</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.26323440299048</v>
+        <v>49.78011275625352</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.2773312746109</v>
+        <v>31.40219833105956</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.23731759003825</v>
+        <v>54.96393753684535</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>35.43903468363751</v>
+        <v>61.07206328514773</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.87796522185518</v>
+        <v>60.12927280944429</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>41.54449629275136</v>
+        <v>70.06426194570638</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>43.52155588061908</v>
+        <v>75.7310389618217</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.84565196441492</v>
+        <v>26.43759146999948</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.23370490193186</v>
+        <v>64.35997222839431</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.88611003366482</v>
+        <v>72.8595351126653</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.75967086291964</v>
+        <v>11.73519751140687</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.88734326180422</v>
+        <v>55.34484225292194</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.12686050538337</v>
+        <v>64.37108027593874</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.23255954967156</v>
+        <v>18.71440570318405</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.60153919135299</v>
+        <v>52.13072962276937</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>44.94944368643431</v>
+        <v>59.29091517360031</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.03938836118963</v>
+        <v>39.78457585321508</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.91610855680473</v>
+        <v>67.02587118778249</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>45.10900191502952</v>
+        <v>72.96339657802324</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.66194050692578</v>
+        <v>77.74775795646082</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>51.25966441610355</v>
+        <v>87.82057645416171</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>53.22598592199758</v>
+        <v>94.35344009721015</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>44.5956615466895</v>
+        <v>38.83213493979756</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>52.88280103687882</v>
+        <v>81.81737875588047</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>55.52478488076598</v>
+        <v>89.8969477595422</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>12.82460329487705</v>
+        <v>-15.16725485688779</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.97886884047912</v>
+        <v>17.95623155939294</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.21150699617066</v>
+        <v>25.40589640658036</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.86102849591075</v>
+        <v>-6.954720098703511</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.25793515698536</v>
+        <v>15.27679519520322</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.59790449077583</v>
+        <v>20.6698595371803</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>16.68606513364962</v>
+        <v>7.369904843232096</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.5888050861325</v>
+        <v>24.73119701545224</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.77439304381251</v>
+        <v>29.16476180164451</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.20561937845702</v>
+        <v>29.03474791791256</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.82479587010815</v>
+        <v>35.70284809407753</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>33.78669943789027</v>
+        <v>40.21855020779111</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.24213564219546</v>
+        <v>-2.595204165899169</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>33.56143645031374</v>
+        <v>25.98752221006052</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.19430963175776</v>
+        <v>32.96922708728525</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>17.6298418993815</v>
+        <v>-12.12971655527908</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.82953930736531</v>
+        <v>23.64653207921553</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.08257804978577</v>
+        <v>34.239029859627</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.73890312083163</v>
+        <v>-8.561737219914328</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.18298127573365</v>
+        <v>16.40695871825408</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.54417276441097</v>
+        <v>25.20019562982712</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.57456488838729</v>
+        <v>7.966990830121688</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.52141259913876</v>
+        <v>27.67352357182438</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.72679694930731</v>
+        <v>35.06527590882905</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>31.15712937774118</v>
+        <v>31.30746170524889</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.81284332560629</v>
+        <v>39.94025155784334</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.79364524693395</v>
+        <v>46.58919436288558</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>30.15966051937606</v>
+        <v>0.6206983385808691</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.53150995920679</v>
+        <v>33.75219879568571</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>41.18838642631419</v>
+        <v>43.84825354330448</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.19361728318454</v>
+        <v>-3.872215819092567</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.30738982323451</v>
+        <v>35.65896528922265</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.5508867533772</v>
+        <v>45.99445106398788</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.58968699935713</v>
+        <v>1.019782622866522</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.94447906159031</v>
+        <v>30.11375477625913</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.29643573002259</v>
+        <v>38.73566255270895</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.40258064059593</v>
+        <v>20.38829588454873</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>38.26611976729408</v>
+        <v>43.79392689083431</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>40.46279060790172</v>
+        <v>51.02363309891786</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>41.00737322099025</v>
+        <v>53.00538633139398</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>46.59428437990618</v>
+        <v>61.81469176243964</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>48.56441649278693</v>
+        <v>69.34543003781167</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>39.97547657611604</v>
+        <v>17.08330264275915</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>48.24637225434915</v>
+        <v>55.2931746704588</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>50.89295477512348</v>
+        <v>64.98530584043044</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.34551749446434</v>
+        <v>-0.1487568675160347</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.5410019962795</v>
+        <v>35.03166188632272</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.77302798831813</v>
+        <v>41.39944296170766</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>18.41596945345606</v>
+        <v>9.20461773634478</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.85554276812957</v>
+        <v>33.62511967621042</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.19486968082597</v>
+        <v>37.80612800169149</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.24101585374558</v>
+        <v>24.1097969823137</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.1835640470166</v>
+        <v>43.38768269978583</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.36854795397732</v>
+        <v>46.75122828592798</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.79182686520295</v>
+        <v>47.83558506450279</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.44319647020231</v>
+        <v>55.12916889912958</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.40482743888845</v>
+        <v>59.02049155397617</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.80030850957587</v>
+        <v>14.3743320826915</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.16771120036532</v>
+        <v>45.31347316375474</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>38.79988161420625</v>
+        <v>50.85966300885654</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.17163961131669</v>
+        <v>4.083334548515001</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.41274212864962</v>
+        <v>41.94600872556352</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.66512999429353</v>
+        <v>51.34813415150137</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.31497406290084</v>
+        <v>8.813728591450541</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.80191293032048</v>
+        <v>35.99965673299739</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.16242044815915</v>
+        <v>43.45714082919134</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.15064407828205</v>
+        <v>25.94253182552068</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.13748133629836</v>
+        <v>47.59170782004367</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>33.34222277454593</v>
+        <v>53.80482574380704</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.76477835141618</v>
+        <v>51.4551740044045</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>39.45283016412046</v>
+        <v>60.71462431523324</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>41.43333304268099</v>
+        <v>66.70200014541751</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.73915027129493</v>
+        <v>19.01105269663182</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>41.15931795053051</v>
+        <v>54.53533713203603</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>43.81544546782941</v>
+        <v>63.06352482127525</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.69890258831016</v>
+        <v>10.16818551308787</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.85354527068459</v>
+        <v>51.80179896990991</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.09628916324656</v>
+        <v>60.93848365765592</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.1293895940031</v>
+        <v>16.12826614551284</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.52649155591116</v>
+        <v>47.45630815089694</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.87765647634936</v>
+        <v>54.73192223671384</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.94228027350118</v>
+        <v>36.12160743642288</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>40.84529535212999</v>
+        <v>61.4859012266862</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>43.04122165418163</v>
+        <v>67.52831476832176</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.5786512405607</v>
+        <v>70.90423790680914</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.19747363777061</v>
+        <v>80.31986565224049</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>51.16722531369724</v>
+        <v>87.16657824245095</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>42.51905264735594</v>
+        <v>33.18895657865571</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>50.83764155124442</v>
+        <v>73.8162003078923</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>53.48335466035022</v>
+        <v>81.91768762888472</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.10925633544769</v>
+        <v>-14.62089124725482</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.27714498120381</v>
+        <v>18.79256738918622</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.50583338705038</v>
+        <v>25.32755235180673</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.16335587840372</v>
+        <v>-6.200169232113051</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.57431417914746</v>
+        <v>16.25696177125946</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.91017129728231</v>
+        <v>20.63271429434593</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>17.98674838388196</v>
+        <v>8.172132244465377</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.90259989119665</v>
+        <v>25.73079263351009</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.08434627745623</v>
+        <v>29.26077711690097</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.51623624611127</v>
+        <v>30.04439364434422</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.14607031563173</v>
+        <v>36.67621687908813</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.10446543998241</v>
+        <v>40.55161398160658</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.540735597378</v>
+        <v>-1.55807169650323</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.87587269431013</v>
+        <v>27.21581276604207</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.50412387930709</v>
+        <v>32.96897579319703</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.9046388190594</v>
+        <v>-13.98099644277412</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.11795237202611</v>
+        <v>22.07390437918826</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.36697548753129</v>
+        <v>31.68486095131822</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.03114313183683</v>
+        <v>-10.24171878311617</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.48926634962556</v>
+        <v>14.93739724805536</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.84627671764337</v>
+        <v>22.6376216455748</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.86519112251915</v>
+        <v>6.291811513310286</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.82514371450228</v>
+        <v>26.18274713910777</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.02662222202315</v>
+        <v>32.60433309582952</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.4576186935686</v>
+        <v>29.89194635591389</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.12397867708896</v>
+        <v>38.47980687803923</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>40.10121668882736</v>
+        <v>44.45609254787178</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.44816944244884</v>
+        <v>-0.7120370770235276</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.83584779639753</v>
+        <v>32.59553092296855</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.48802498476592</v>
+        <v>41.37904130795027</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.43002073288415</v>
+        <v>-4.37764163054381</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.55718292131348</v>
+        <v>35.48326109112089</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.79656354984444</v>
+        <v>44.81868595342729</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.84336651928023</v>
+        <v>0.6595507645670153</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.21197240958498</v>
+        <v>30.02056043912423</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>41.55964457028698</v>
+        <v>37.52834756315394</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>32.65472262942105</v>
+        <v>20.08128108349111</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.53114907345713</v>
+        <v>43.72165063719281</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.72381776899174</v>
+        <v>49.96287697130017</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.26920834885067</v>
+        <v>52.9673324697884</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>47.86655619118084</v>
+        <v>61.72754477885881</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>49.83303930706356</v>
+        <v>68.56320550903786</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>41.22555309022245</v>
+        <v>17.05087119323531</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.5120185219937</v>
+        <v>55.49687665725372</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>52.15378577494614</v>
+        <v>63.84885424205603</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.46604553526019</v>
+        <v>-24.5403232410237</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.59513598422935</v>
+        <v>7.689546095338965</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.80953191757644</v>
+        <v>14.15462130479388</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.45646672573508</v>
+        <v>-16.6722853258894</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.82739708729076</v>
+        <v>4.637283017558893</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.14827365893312</v>
+        <v>8.949507383470568</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>15.27790126721572</v>
+        <v>-3.059029316577899</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.15640933588713</v>
+        <v>13.49636046286771</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.32414089345391</v>
+        <v>16.97735215034956</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.74175171416707</v>
+        <v>17.21127378694082</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>30.34100872453952</v>
+        <v>23.48845009949924</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>32.2873102790201</v>
+        <v>27.46487565131916</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.78667592711977</v>
+        <v>-13.27276863260315</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>32.07683523791113</v>
+        <v>14.14080938284112</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>34.68826596917963</v>
+        <v>19.80927989315983</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>16.25082050427502</v>
+        <v>-22.31209514021109</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.4251690756813</v>
+        <v>12.52530548506543</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.65979519624036</v>
+        <v>22.04838377028505</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.31350602342624</v>
+        <v>-19.01041709716521</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.73142739386717</v>
+        <v>4.984303743560435</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.0733485130475</v>
+        <v>12.60138998645145</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.14550714993132</v>
+        <v>-3.244028219090346</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.06795381049465</v>
+        <v>15.61196811024506</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.25531615061397</v>
+        <v>21.96777864532908</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.67200909229956</v>
+        <v>18.77503458010446</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.30765315648715</v>
+        <v>26.98787471543609</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>37.27270076737624</v>
+        <v>33.06231016853154</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.68303574578369</v>
+        <v>-10.7434298363784</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.02554443438853</v>
+        <v>21.14806838744148</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>39.66077773776674</v>
+        <v>29.83600206691595</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.81776112538073</v>
+        <v>-12.23907603968539</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.9066040644332</v>
+        <v>26.37551461921691</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.13168816033983</v>
+        <v>35.63478652988866</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.16679972279583</v>
+        <v>-7.661320680671807</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.49587331387487</v>
+        <v>20.48328931595579</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>38.82855617624087</v>
+        <v>27.91990886673449</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.97616876833085</v>
+        <v>10.99453830200647</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.81571475989542</v>
+        <v>33.57127361360392</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.99436124700564</v>
+        <v>39.75727824147747</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>39.5249292340426</v>
+        <v>42.22087665286542</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>45.09208600966328</v>
+        <v>50.61052139033812</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>47.04648369553107</v>
+        <v>57.531899109704</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>38.5013314229389</v>
+        <v>7.415816012250723</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>46.74338275870316</v>
+        <v>44.40609215644066</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>49.36831653368058</v>
+        <v>52.67347591189458</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.26630878523891</v>
+        <v>-5.488891450632156</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.51186652254235</v>
+        <v>28.88758325852677</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.79379201318133</v>
+        <v>36.43375761790652</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.45463753117303</v>
+        <v>3.413458358567688</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.9456650315394</v>
+        <v>26.68642308209592</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.33695438630243</v>
+        <v>32.0735382672767</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.28229068621884</v>
+        <v>17.95166653820608</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.27266807910977</v>
+        <v>36.20769538793278</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.50630978443181</v>
+        <v>40.63847605454551</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.00276224828802</v>
+        <v>41.85851250566314</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.69569919254048</v>
+        <v>48.69968140667275</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>41.69975453214307</v>
+        <v>53.4247505298431</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.99590448244188</v>
+        <v>10.26031573029891</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>41.42106922901908</v>
+        <v>39.86747803874928</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.11150164590289</v>
+        <v>47.09127184493772</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.15446925089257</v>
+        <v>-2.947141577302791</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.44603893804631</v>
+        <v>34.13921548151926</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.74877816426049</v>
+        <v>44.82367290676837</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.41701369210059</v>
+        <v>1.185092861953738</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.95581936455113</v>
+        <v>27.26109786020098</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>38.36875949841372</v>
+        <v>36.03615695744426</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.25538901499297</v>
+        <v>17.9489166441581</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.29044232165266</v>
+        <v>38.60478630364827</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.54427920931315</v>
+        <v>45.9830845774298</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>39.04003104316752</v>
+        <v>43.60402294525043</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>44.77001742844458</v>
+        <v>52.44864991313906</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>46.79334639371065</v>
+        <v>59.30734467264909</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.99875404908973</v>
+        <v>13.00465500755757</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.47713200295134</v>
+        <v>47.2555751315293</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>49.19205649184509</v>
+        <v>57.56159531676794</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.66856044365407</v>
+        <v>3.902031587426972</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.87298990712398</v>
+        <v>44.73914098009273</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>44.16596933640113</v>
+        <v>55.1767869371993</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.22015672727075</v>
+        <v>9.286634121674734</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>45.66842752425732</v>
+        <v>39.48249997075313</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>48.07190814586447</v>
+        <v>48.10314153643091</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>39.03592846715986</v>
+        <v>28.89239980320396</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>45.9865063188512</v>
+        <v>53.24226852232064</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>48.23141971662494</v>
+        <v>60.4722404723756</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>48.84111215155329</v>
+        <v>63.949899571939</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>54.50127814488257</v>
+        <v>72.94419914017472</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>56.51373731505409</v>
+        <v>80.68001492853782</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>47.76555532663639</v>
+        <v>28.02146313427591</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>56.14155815996282</v>
+        <v>67.36235433307537</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>58.8459462006839</v>
+        <v>77.27141156069466</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.02223884320097</v>
+        <v>2.46279979467505</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.19281938550505</v>
+        <v>36.93614126435912</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.42366734494833</v>
+        <v>43.91775708460986</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>19.0973460006299</v>
+        <v>11.71723750050733</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.51116769672205</v>
+        <v>35.3990298054467</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.84921004325882</v>
+        <v>40.27301682747766</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>19.9208757780456</v>
+        <v>26.47335156698268</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.83941493544829</v>
+        <v>45.1048314921012</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.02321906722254</v>
+        <v>49.07554960044655</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.45362528517959</v>
+        <v>49.52818711655202</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>35.08554828154416</v>
+        <v>56.62094328280753</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>37.04585962554669</v>
+        <v>60.79654186971088</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.46573284692961</v>
+        <v>16.62633409490705</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.80397977562139</v>
+        <v>46.80733480678488</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.43469663758874</v>
+        <v>53.16899252512334</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.80537407536664</v>
+        <v>1.119638276050502</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.0212765318495</v>
+        <v>38.22872901845005</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.27250375469271</v>
+        <v>48.29574294525958</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.95272635601572</v>
+        <v>5.680430324426467</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.41360647314484</v>
+        <v>32.07815185695812</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.77284835918653</v>
+        <v>40.28729479764853</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>24.78691902594812</v>
+        <v>22.57703745047146</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.74945955412064</v>
+        <v>43.53605887845484</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.95303913957666</v>
+        <v>50.4074264222383</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.38264769126745</v>
+        <v>47.34075993992303</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.05101929477265</v>
+        <v>56.38602364306064</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.03021558799814</v>
+        <v>62.67186688438437</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>33.36094016464165</v>
+        <v>15.45958477618522</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.75160854875677</v>
+        <v>50.16716308877015</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.40630290766646</v>
+        <v>59.5740785156414</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.24335348615963</v>
+        <v>7.512680447241337</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.37281343155041</v>
+        <v>48.37478113018216</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.61442909115732</v>
+        <v>58.18162264098251</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.67627569150134</v>
+        <v>13.36547380683313</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.04733618561846</v>
+        <v>43.88524321961457</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.39726903971428</v>
+        <v>51.91879016471517</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.48778964137681</v>
+        <v>33.09839103087321</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>41.36652238235734</v>
+        <v>57.7547592589265</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>43.56131859076724</v>
+        <v>64.46068623623785</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.10553975528739</v>
+        <v>67.15120301440486</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.70470588587613</v>
+        <v>76.35738751664009</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>51.67316300726458</v>
+        <v>83.51960774556028</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>43.05035539153273</v>
+        <v>30.02266599267237</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>51.33947011738042</v>
+        <v>69.80693719057119</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>53.98378737988084</v>
+        <v>78.80096379644407</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.03457169557255</v>
+        <v>3.708102660728219</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.21184238066101</v>
+        <v>39.97574261342366</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.46765564979159</v>
+        <v>47.32859945426959</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.23563818861289</v>
+        <v>13.88401634842448</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>33.65608276224977</v>
+        <v>39.21909629069971</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.01997515032325</v>
+        <v>44.39016582722508</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>27.05582376958547</v>
+        <v>29.02285909510442</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.98033969535758</v>
+        <v>49.10034949767406</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.18839262786241</v>
+        <v>53.3403484280682</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.69768082408535</v>
+        <v>55.12809727984121</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.33744421467834</v>
+        <v>62.64773963574444</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>44.31848103446569</v>
+        <v>67.23197157062808</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.6889471251263</v>
+        <v>21.78450958951209</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.03467381991285</v>
+        <v>53.71307758380873</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>46.69423425734279</v>
+        <v>60.69862040481559</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.84897488469004</v>
+        <v>5.625829005372424</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.07171247340546</v>
+        <v>44.62729053270002</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.34806045034475</v>
+        <v>55.08022328140599</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.12310730930781</v>
+        <v>11.01168554127115</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>38.59076394642224</v>
+        <v>39.17591671555654</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.97601684984799</v>
+        <v>47.69150199422127</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.95397857491582</v>
+        <v>28.37196761219781</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.92264168556913</v>
+        <v>50.87282708799324</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.15061843004514</v>
+        <v>58.02201204993078</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.6594473188125</v>
+        <v>56.2577291358869</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>47.33582880610028</v>
+        <v>65.79255669688098</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.33589063287147</v>
+        <v>72.49564006028945</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>40.61686286838213</v>
+        <v>23.9602282909929</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>49.01516948182738</v>
+        <v>60.56757420837921</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>51.69889405319353</v>
+        <v>70.58512074823551</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.1541191539359</v>
+        <v>9.881645662488904</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>44.29037940444022</v>
+        <v>52.60746683236818</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.5569139506731</v>
+        <v>62.81313969577491</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>40.71282385055927</v>
+        <v>16.46766042349723</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.09063565851842</v>
+        <v>48.72223605733083</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.46636246607906</v>
+        <v>57.08212044921942</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>41.52146571847502</v>
+        <v>36.64131593855417</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.40629733680813</v>
+        <v>62.81061041677326</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>50.62528802639015</v>
+        <v>69.81080383435912</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>51.24709161351247</v>
+        <v>73.91391734567543</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.85419820137759</v>
+        <v>83.58234938088619</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.8433717460949</v>
+        <v>91.16265035927412</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>50.17134811420438</v>
+        <v>36.32172874568501</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>58.46805752246074</v>
+        <v>77.99049764057348</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>61.14117413594754</v>
+        <v>87.60795494205195</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>12.32212135197744</v>
+        <v>3.062088959533789</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.69262653489754</v>
+        <v>37.73500870640527</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.00700135068679</v>
+        <v>45.2527554759729</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.49643292604961</v>
+        <v>13.04936478341134</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.11681117015249</v>
+        <v>36.76867217372188</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.54211978737453</v>
+        <v>42.13150967036128</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.35883645276119</v>
+        <v>27.17214663436506</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.47000150602666</v>
+        <v>45.84383074152272</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.73532452653414</v>
+        <v>50.26020367892444</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.28298066076634</v>
+        <v>51.45818878297509</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>32.07539255887429</v>
+        <v>58.37458978870447</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.10873444372756</v>
+        <v>63.20131861079759</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.32945258290145</v>
+        <v>19.59361870703849</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.89991034230715</v>
+        <v>49.60671297830314</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.62852120620401</v>
+        <v>56.86220791161517</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.24406297214055</v>
+        <v>6.221398957181684</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.66140676850641</v>
+        <v>43.58104729219669</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.99685025366557</v>
+        <v>54.19425900654065</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>20.49310090045063</v>
+        <v>11.52728677567802</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.16210967296618</v>
+        <v>38.02651951529809</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.60933740104373</v>
+        <v>46.72854638379397</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.36670774263493</v>
+        <v>27.84639103810201</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.52334838713141</v>
+        <v>48.89796783168919</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.80911488893782</v>
+        <v>56.2195425424398</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.35637443512202</v>
+        <v>53.88217480962167</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.18650373104218</v>
+        <v>62.78143810934651</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>39.23937863985716</v>
+        <v>69.72528974592467</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.36814505729617</v>
+        <v>23.02669997857735</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>38.992763517322</v>
+        <v>57.64415350288265</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.74616892799573</v>
+        <v>67.93450212769528</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.06050135419669</v>
+        <v>11.04570580018787</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>34.38947457859598</v>
+        <v>52.0878704250282</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.71464030374653</v>
+        <v>62.45851266241306</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>30.60521978206836</v>
+        <v>17.53552216825667</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.18240586261452</v>
+        <v>48.07875747091907</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>40.61964514776831</v>
+        <v>56.63022539446207</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.45592695115899</v>
+        <v>36.65420995511928</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.52689083951069</v>
+        <v>61.33234494905776</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>40.80323601177583</v>
+        <v>68.50921045648818</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>41.46749389555509</v>
+        <v>72.00774071314906</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>47.22684124051635</v>
+        <v>81.03789669187485</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>49.26836389284058</v>
+        <v>88.8448635141167</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>40.4433808310614</v>
+        <v>35.89100357646825</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>48.96416144118605</v>
+        <v>75.51460660827105</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.70644746662629</v>
+        <v>85.41086192367219</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.0252408192409</v>
+        <v>-1.040739138172878</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.24167043895473</v>
+        <v>34.62945191707203</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.49671168233872</v>
+        <v>41.86709291742125</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.1689567596509</v>
+        <v>8.557259910862971</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.63013612089884</v>
+        <v>33.3426776945543</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.99334656366356</v>
+        <v>38.43645121176141</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.99700339844612</v>
+        <v>23.79218636907271</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.95967268359312</v>
+        <v>43.36623370559407</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.16703201795987</v>
+        <v>47.53143180869785</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>32.63023623512331</v>
+        <v>48.5587501748369</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.29922861880821</v>
+        <v>55.97082959456331</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>40.28032004880468</v>
+        <v>60.30828014323129</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.62682766159775</v>
+        <v>14.60631905094172</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.01824065053294</v>
+        <v>46.05422592874234</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.67718260482189</v>
+        <v>52.76461335543051</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.83439434030795</v>
+        <v>-1.833649303729427</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.09637111297722</v>
+        <v>36.52893517583726</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.37200399653847</v>
+        <v>46.87521301080864</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.05086927379124</v>
+        <v>2.963648646983263</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.55934249373429</v>
+        <v>30.52707343911812</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.94397322655422</v>
+        <v>38.9783218284817</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>27.88967717833879</v>
+        <v>20.38205841850195</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>34.89656847344834</v>
+        <v>42.33668610952617</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.12390859187693</v>
+        <v>49.42205478572655</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.58646174461119</v>
+        <v>46.86128003289944</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>43.29210639949643</v>
+        <v>56.25731251889671</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>45.29227906670325</v>
+        <v>62.72289805919459</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.54913062161873</v>
+        <v>13.94969694362885</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>44.99322186495321</v>
+        <v>50.01308824457192</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>47.67639185209873</v>
+        <v>59.78348786956184</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>33.23513229796252</v>
+        <v>3.063311506494983</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.40994409364723</v>
+        <v>45.19530879573394</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.67583361420705</v>
+        <v>55.29448795089517</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.73782800059271</v>
+        <v>9.149310583958126</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.15573557171096</v>
+        <v>40.8536324432424</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.53092027998854</v>
+        <v>49.14589343375896</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>37.55402189596284</v>
+        <v>29.40268320630407</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>44.47640871476732</v>
+        <v>55.07145123838278</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>46.69483681534837</v>
+        <v>62.00569171075563</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>47.27223886761264</v>
+        <v>65.2747837831224</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.90810331503608</v>
+        <v>74.82601815506639</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>54.89741131379662</v>
+        <v>82.18730154002148</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>46.20169399091716</v>
+        <v>27.0752707295582</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>54.54338461768221</v>
+        <v>68.2488544941579</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>57.2160285632494</v>
+        <v>77.62022390269105</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.12691993946991</v>
+        <v>-11.41610163989668</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.2572731668723</v>
+        <v>22.34610162059294</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.5068106516327</v>
+        <v>29.81007615837161</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.25205728758338</v>
+        <v>-3.257330702515432</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.62399183613343</v>
+        <v>19.57221848000307</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.98128239407321</v>
+        <v>24.91630674352489</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.06928311363055</v>
+        <v>11.2717544034356</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.9485476170863</v>
+        <v>29.17317143628426</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.15043584896723</v>
+        <v>33.57089238985554</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.64442806441144</v>
+        <v>34.03743340142323</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.24734197562164</v>
+        <v>40.55963129503523</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.22299366329126</v>
+        <v>45.19635757609775</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>31.66623857282426</v>
+        <v>2.468237998481985</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>39.95736449246305</v>
+        <v>31.52238578527693</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.60947627396686</v>
+        <v>38.6226147270058</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.93466178975665</v>
+        <v>-5.496179613493563</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.11027119772305</v>
+        <v>30.9805459239857</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.38035615335384</v>
+        <v>41.57162741104533</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.13281357107025</v>
+        <v>-2.004844806245149</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.55174120378621</v>
+        <v>23.6353523107012</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>36.93040598001257</v>
+        <v>32.35829120193945</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.96064052906898</v>
+        <v>14.77678513317704</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.88384687696311</v>
+        <v>35.0854984379414</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>37.10567231206306</v>
+        <v>42.42335964534723</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>37.5990294669282</v>
+        <v>39.26741284538234</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.2383896348442</v>
+        <v>47.7892582773554</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.23306838839792</v>
+        <v>54.55199636433383</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.58698842839186</v>
+        <v>8.627005074875992</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.93045262146236</v>
+        <v>42.31483573329211</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.60674204180282</v>
+        <v>52.49755825686287</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.32741829712648</v>
+        <v>1.321515699285406</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.4172838210191</v>
+        <v>41.51307251696688</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.67768728461557</v>
+        <v>51.85760975661472</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.81053950725721</v>
+        <v>6.035450727586291</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.14038173964203</v>
+        <v>35.75630555371675</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.50965827113068</v>
+        <v>44.32286425183696</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.61612704238948</v>
+        <v>25.61533801568644</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.45620959189073</v>
+        <v>49.58266171670865</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>46.66917934651892</v>
+        <v>56.7706689163187</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>47.27477832701474</v>
+        <v>59.35167940407416</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>52.84541730984872</v>
+        <v>68.02827385569709</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>54.82933547599113</v>
+        <v>75.6671609186276</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>46.22874072220172</v>
+        <v>23.46929043174771</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>54.47146968418772</v>
+        <v>62.19740965957314</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>57.13730358108427</v>
+        <v>71.98959542563146</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>12.10833662561946</v>
+        <v>-3.486382169432325</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.47285056759462</v>
+        <v>30.81604329802917</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.78803456333648</v>
+        <v>38.48534566398509</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.28069321736969</v>
+        <v>6.130118103325913</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>22.89485940995278</v>
+        <v>29.45704506723655</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.32101149689925</v>
+        <v>34.99062467502776</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.14295526742603</v>
+        <v>20.14261049026103</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>23.24831911636714</v>
+        <v>38.4710970418473</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.51443323779744</v>
+        <v>43.03825595275124</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.06509076196364</v>
+        <v>44.10691622700078</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.85286680898764</v>
+        <v>50.9142862809403</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>33.88684961415923</v>
+        <v>55.82301275503087</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.11519507981924</v>
+        <v>12.61265245657626</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.678647049341</v>
+        <v>42.20979286714186</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.40820154658448</v>
+        <v>49.64871940566193</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>17.0268581650502</v>
+        <v>-0.2618908060301237</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.43817973638423</v>
+        <v>36.72608965564836</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.77444454496116</v>
+        <v>47.51050446395286</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>20.27390382072156</v>
+        <v>4.681830285697526</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.93666835220316</v>
+        <v>30.7880912409291</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.38475241630045</v>
+        <v>39.68309407121332</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>21.14737427086137</v>
+        <v>20.88865749650342</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.29818359608712</v>
+        <v>41.59639178831257</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.58475320195104</v>
+        <v>49.08838072909492</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.13497856452778</v>
+        <v>46.59209699279208</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>36.96044865194123</v>
+        <v>55.38346566064467</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.01397389595421</v>
+        <v>62.41716225149935</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>30.15040209153733</v>
+        <v>16.08812924552108</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.76797862540035</v>
+        <v>50.28740873206553</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.52234222561249</v>
+        <v>60.78570296508771</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.84585777936848</v>
+        <v>5.087606373891642</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.16888068741049</v>
+        <v>45.75722828586409</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.49487995286766</v>
+        <v>56.29929807726077</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.38855122882747</v>
+        <v>11.22813447824674</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>37.95956726994411</v>
+        <v>41.37761694841458</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.39767620907762</v>
+        <v>50.12233760378727</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.2391358659029</v>
+        <v>30.23492839141269</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.30433744804004</v>
+        <v>54.56831242266836</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>40.58149836015527</v>
+        <v>61.91572152717666</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>41.24858955381278</v>
+        <v>65.25233352173197</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>47.00333282301047</v>
+        <v>74.17743735112245</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.04551414207067</v>
+        <v>82.07518151042422</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>40.22806300222123</v>
+        <v>29.48915335097807</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>48.74188599913762</v>
+        <v>68.69174006703339</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>51.48514519438414</v>
+        <v>78.7982755977699</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.89567530095059</v>
+        <v>3.246401000371588</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.12052305228012</v>
+        <v>38.45006870424595</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>30.38913125005056</v>
+        <v>45.34268284542689</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>24.08750639726998</v>
+        <v>13.29519418738959</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.55705968670929</v>
+        <v>37.59568236561489</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>33.93449243411659</v>
+        <v>42.32108784161007</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>24.91053186750352</v>
+        <v>28.31316613687495</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.88090042198191</v>
+        <v>47.51545140343258</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.10159153578476</v>
+        <v>51.35975873976147</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.59176698948223</v>
+        <v>53.05186780935653</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>40.26787867391172</v>
+        <v>60.10267749933428</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.26018980753743</v>
+        <v>64.27786139208035</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.58009647470057</v>
+        <v>20.10016862559838</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.98115019354299</v>
+        <v>50.80244595632701</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>44.65597337240276</v>
+        <v>57.27434727680131</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.75910256001858</v>
+        <v>4.3498952230517</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.02980016577282</v>
+        <v>42.2350695710686</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>35.31906280544867</v>
+        <v>52.16567939832679</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.02464586122138</v>
+        <v>9.604871056186379</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.54180842500815</v>
+        <v>36.67749878310047</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>38.94072651893061</v>
+        <v>44.68038831528077</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.85837079217061</v>
+        <v>26.8284699454945</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.87325716768137</v>
+        <v>48.40451079176965</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>39.11398907669598</v>
+        <v>55.09976141751234</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.60346725672417</v>
+        <v>53.2661422209525</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>45.31648684709531</v>
+        <v>62.2864823886958</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>47.32792969828776</v>
+        <v>68.53171751013865</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>38.55752694380234</v>
+        <v>21.3628690277756</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>47.01160711353656</v>
+        <v>56.65649111946733</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>49.71073535912662</v>
+        <v>66.09501885656222</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.20206532841497</v>
+        <v>9.572059970132354</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.3858051824307</v>
+        <v>51.1832264714473</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>44.66530715002027</v>
+        <v>60.85637105815471</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>38.75545276670343</v>
+        <v>16.04249102817649</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>46.18227050766379</v>
+        <v>47.20795863361808</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>48.5717268592044</v>
+        <v>55.0418745829429</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>39.56660757966726</v>
+        <v>36.06704119336395</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>46.49719556831181</v>
+        <v>61.31322490051579</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>48.7290020256093</v>
+        <v>67.84836256247065</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>49.33240291014516</v>
+        <v>71.80134259710206</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>54.97574359884368</v>
+        <v>80.95846356332815</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>56.97632489698037</v>
+        <v>88.06795939623187</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>48.25269471371952</v>
+        <v>34.63851355301406</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>56.60461605959505</v>
+        <v>74.98889149207355</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>59.29320504219005</v>
+        <v>84.01876022787383</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.16263496902483</v>
+        <v>-0.6244712516598661</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.38807272467287</v>
+        <v>35.26150835686028</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.64953058193891</v>
+        <v>42.49646333736203</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.33415103642935</v>
+        <v>9.16128912928853</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.80455691222605</v>
+        <v>34.18591771903114</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>33.17448729667374</v>
+        <v>39.27301147652076</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>24.16139670601433</v>
+        <v>24.38800631620463</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>31.13264848668999</v>
+        <v>44.17846375115995</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.34629716137801</v>
+        <v>48.3382645482337</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>33.82016332842095</v>
+        <v>49.38032746798815</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>39.49654331039188</v>
+        <v>56.78588435015581</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.48310746707178</v>
+        <v>61.13858508027721</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.81053572170205</v>
+        <v>15.26623156084046</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>41.21236116505617</v>
+        <v>46.955673599489</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>43.87881475095976</v>
+        <v>53.69187078255554</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>24.98494016409535</v>
+        <v>-1.486545318051157</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.25602110355798</v>
+        <v>37.08924773357303</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.53810382558299</v>
+        <v>47.43727837381323</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.22942778076081</v>
+        <v>3.482385031375635</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.7472278945296</v>
+        <v>31.28336156747029</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.13861307760938</v>
+        <v>39.73240666225408</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.06743726301399</v>
+        <v>20.89271382941428</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.08300528080682</v>
+        <v>43.06192088257529</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>38.31666657748508</v>
+        <v>50.14608364060246</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>38.78991894789048</v>
+        <v>47.59717798136521</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>44.50303591699307</v>
+        <v>56.98305021743599</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>46.5087128095819</v>
+        <v>63.47171783024405</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>37.74631023688826</v>
+        <v>14.52616184014722</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>46.20092423024263</v>
+        <v>50.82925341687805</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>48.89164563252555</v>
+        <v>60.62832966073069</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.37178617887997</v>
+        <v>2.68037103077387</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>41.55558731120599</v>
+        <v>45.00500199465515</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.8279160029044</v>
+        <v>55.11342081302367</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>37.9025111242679</v>
+        <v>8.909436787529618</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.3296275971461</v>
+        <v>40.82882605114413</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>47.71155622958848</v>
+        <v>49.12754734807254</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>38.71794599703219</v>
+        <v>29.1397692880777</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>45.64889967455388</v>
+        <v>55.00297585910737</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>47.87363903829107</v>
+        <v>61.94361427103931</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>48.46152165218155</v>
+        <v>65.21952727040767</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>54.10476540843561</v>
+        <v>74.74824405068313</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>56.09956709821127</v>
+        <v>82.13508721538142</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>47.38475751988481</v>
+        <v>26.87267727732085</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>55.73683548447684</v>
+        <v>68.26102295117472</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>58.41702015803706</v>
+        <v>77.67086519434321</v>
       </c>
     </row>
   </sheetData>
